--- a/medicine/Mort/Décès_en_1973/Décès_en_1973.xlsx
+++ b/medicine/Mort/Décès_en_1973/Décès_en_1973.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1973</t>
+          <t>Décès_en_1973</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1973</t>
+          <t>Décès_en_1973</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-José Bardina, footballeur espagnol (° 9 avril 1912).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>José Bardina, footballeur espagnol (° 9 avril 1912).
 Raoul Brygoo, peintre, illustrateur, graveur et architecte français (° 24 novembre 1886).
 Richard Chanlaire, peintre français (° 1896).
 Roger Deverin, peintre, illustrateur et décorateur français (° 14 mai 1884).
@@ -543,9 +560,43 @@
 Grigory Gluckmann, peintre, illustrateur et lithographe russe puis soviétique (° 25 octobre 1898).
 Gino Gregori, peintre italien (° 6 janvier 1906).
 Albert Jeanneret, musicien, compositeur et violoniste suisse (° 7 février 1886).
-Jean-Louis Jemma, acteur français (° 1921).
-Janvier
-3 janvier : Charles Emmanuel Jodelet, peintre et illustrateur français (° 24 décembre 1883).
+Jean-Louis Jemma, acteur français (° 1921).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : Charles Emmanuel Jodelet, peintre et illustrateur français (° 24 décembre 1883).
 5 janvier :
 Alexandre Arnoux, écrivain français (° 27 février 1884).
 Andrée Bordeaux-Le Pecq, peintre française (° 3 octobre 1910).
@@ -563,9 +614,43 @@
 Dragutin Vragović, footballeur yougoslave (° 1901).
 24 janvier : André Chauvel, footballeur français (° 29 juillet 1909).
 26 janvier : Nguyen Nam Son, peintre vietnamien (° 15 février 1890).
-28 janvier : Fernando Diego, footballeur espagnol (° 18 juin 1907).
-Février
-3 février : André Barsacq, metteur en scène et directeur de théâtre français (° 5 février 1909).
+28 janvier : Fernando Diego, footballeur espagnol (° 18 juin 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : André Barsacq, metteur en scène et directeur de théâtre français (° 5 février 1909).
 7 février : Nikola Martinoski, peintre expressionniste macédonien (° 18 août 1903).
 12 février : Benjamin Frankel, pianiste, compositeur et chef d'orchestre anglais (° 31 janvier 1906).
 15 février : Achille Liénart, cardinal français, évêque de Lille (° 7 février 1884).
@@ -577,9 +662,43 @@
 Lucien Raimbourg, comédien français (° 14 septembre 1903).
 22 février : Jean-Jacques Bertrand, ancien premier ministre du Québec (° 20 juin 1916).
 26 février : Jean Dries, peintre français (° 19 octobre 1905).
-27 février : Émile Eigeldinger, coureur cycliste français (° 5 mai 1886).
-Mars
-1er mars : Toshio Bando, peintre japonais (° 16 juillet 1895).
+27 février : Émile Eigeldinger, coureur cycliste français (° 5 mai 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Toshio Bando, peintre japonais (° 16 juillet 1895).
 5 mars :
 Vilém König, footballeur austro-hongrois puis tchécoslovaque (° 18 septembre 1903).
 Robert C. O'Brien, romancier et journaliste américain (° 11 janvier 1918).
@@ -600,9 +719,43 @@
 29 mars : Ida Rosenthal, femme d'affaires américaine (° 9 janvier 1886).
 31 mars :
 Jean Tissier, comédien français (° 1er avril 1896).
-George Woodbridge, acteur anglais (° 16 février 1907).
-Avril
-2 avril : Joseph-Charles Lefèbvre, cardinal français (° 15 avril 1892).
+George Woodbridge, acteur anglais (° 16 février 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Joseph-Charles Lefèbvre, cardinal français (° 15 avril 1892).
 7 avril : Sébastien Laurent, peintre et sculpteur français (° 18 septembre 1887).
 8 avril : Pablo Picasso, peintre et sculpteur espagnol  (° 25 octobre 1881).
 11 avril : Henry-Jacques, poète français (° 22 février 1886).
@@ -618,9 +771,43 @@
 24 avril : Hamilton Fish Armstrong,  diplomate américain, rédacteur en chef de la revue Foreign Affairs (° 7 avril 1893).
 26 avril : Pierre Delarue-Nouvellière, architecte, peintre, illustrateur et photographe français (° 19 janvier 1889).
 27 avril : Vojtech Adamec, compositeur, chef d'orchestre et enseignant slovaque (° 12 juillet 1926).
-29 avril : Manfred Gurlitt, compositeur et chef d'orchestre allemand (° 6 septembre 1890).
-Mai
-1er mai : Asger Jorn, peintre danois (° 3 mars 1913).
+29 avril : Manfred Gurlitt, compositeur et chef d'orchestre allemand (° 6 septembre 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Asger Jorn, peintre danois (° 3 mars 1913).
 4 mai : Michel Patrix, peintre et graveur français (° 25 mai 1917).
 11 mai : Lex Barker, acteur américain (° 8 mai 1918).
 13 mai : Paul Jouve, peintre et sculpteur français (° 16 mai 1878).
@@ -634,9 +821,43 @@
 Renzo Pasolini, pilote motocycliste italien (° 18 juillet 1938).
 Jarno Saarinen, pilote motocycliste finlandais (° 11 décembre 1945).
 24 mai : Jean-Jules Dufour, peintre, illustrateur et aquafortiste français (° 1er mai 1889).
-29 mai : P. Ramlee, acteur, réalisateur et musicien malaisien (° 22 mars 1929).
-Juin
-3 juin : Walter Bodmer, peintre et sculpteur suisse (° 12 août 1903).
+29 mai : P. Ramlee, acteur, réalisateur et musicien malaisien (° 22 mars 1929).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin : Walter Bodmer, peintre et sculpteur suisse (° 12 août 1903).
 10 juin : Erich von Manstein, célèbre général du Troisième Reich (° 24 novembre 1887).
 16 juin : František Černický, footballeur international autrichien (° 16 septembre 1902).
 17 juin : Léon Petizon, peintre et poète français (° 12 octobre 1920).
@@ -645,9 +866,43 @@
 Eugène Narbonne, peintre et illustrateur français (° 7 juin 1885).
 25 juin :
 Edward Cakobau, chef coutumier autochtone, soldat, homme politique et joueur de cricket fidjien (° 21 décembre 1908).
-Frank Hagney, acteur australien (occasionnellement boxeur et cascadeur) (° 20 mars 1884).
-Juillet
-1er juillet : Barry Diawadou, homme politique guinéen (° 10 mai 1916).
+Frank Hagney, acteur australien (occasionnellement boxeur et cascadeur) (° 20 mars 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Barry Diawadou, homme politique guinéen (° 10 mai 1916).
 4 juillet : Jaime Noaín, matador espagnol (° 20 mai 1901).
 6 juillet :
 Joe E. Brown, acteur, comédien et commentateur sportif américain (° 28 juillet 1892).
@@ -659,9 +914,43 @@
 20 juillet : Bruce Lee, américano-chinois, acteur, maître en arts martiaux (° 27 novembre 1940).
 24 juillet : Adolf Hoffmeister, peintre, caricaturiste, illustrateur, scénographe, écrivain, dramaturge, traducteur, commentateur radio, enseignant, critique d'art, diplomate et voyageur tchèque  (° 15 août 1902).
 25 juillet : Louis St. Laurent, ancien Premier ministre du Canada (° 1er février 1882).
-26 juillet : John Stol, coureur cycliste néerlandais (° 19 avril 1885).
-Août
-1er août :
+26 juillet : John Stol, coureur cycliste néerlandais (° 19 avril 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août :
 Walter Ulbricht, homme politique est-allemand (° 30 juin 1893).
 Frederick Worlock, acteur anglais (° 14 décembre 1886).
 2 août : Jean-Pierre Melville, réalisateur français (° 20 octobre 1917).
@@ -676,9 +965,43 @@
 25 août : Knud Bastrup-Birk, footballeur international danois (° 12 décembre 1919).
 27 août : Tol Avery, acteur américain (° 28 août 1915).
 31 août : John Ford, réalisateur de cinéma américain (° 1er février 1894).
-? août : Raymond Charmet, peintre et critique d'art français (° 1904).
-Septembre
-2 septembre : John Ronald Reuel Tolkien, écrivain britannique (° 3 janvier 1892).
+? août : Raymond Charmet, peintre et critique d'art français (° 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : John Ronald Reuel Tolkien, écrivain britannique (° 3 janvier 1892).
 4 septembre : Elise Ottesen-Jensen, journaliste suédoise (° 2 janvier 1886).
 6 septembre : Matthias Toliman, homme politique papou-néo-guinéen (° 25 août 1925).
 7 septembre : Alfred Lombard, peintre français (° 24 avril 1884).
@@ -711,9 +1034,43 @@
 29 septembre :
 Wystan Hugh Auden, poète et critique anglais (° 21 février 1907).
 Nurullah Esat Sümer, homme politique turc (° 1899).
-30 septembre : Walter Abendroth, compositeur allemand (° 29 mai 1896).
-Octobre
-2 octobre :
+30 septembre : Walter Abendroth, compositeur allemand (° 29 mai 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre :
 Arthur Bossler, résistant français chef des Forces françaises de l'intérieur (FFI) de La Robertsau pendant la Seconde Guerre mondiale (° 6 janvier 1906).
 Paavo Nurmi, athlète finlandais (° 13 juin 1897).
 6 octobre :
@@ -734,9 +1091,43 @@
 23 octobre : Nellie Sengupta, femme politique indienne d'origine britannique (° 12 janvier 1886).
 25 octobre : Émile Masson, coureur cycliste belge (° 16 octobre 1888).
 26 octobre : James Bell, acteur américain (° 1er décembre 1891).
-29 octobre : Cecilia Cuțescu-Storck, peintre roumaine (° 14 mars 1879).
-Novembre
-1er novembre : Vladimir Sterligov, peintre et poète russe puis soviétique (° 18 mars 1904).
+29 octobre : Cecilia Cuțescu-Storck, peintre roumaine (° 14 mars 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Vladimir Sterligov, peintre et poète russe puis soviétique (° 18 mars 1904).
 2 novembre : Thomas William Lemuel Prowse, homme politique canadien (° 31 août 1888).
 3 novembre :
 Marc Allégret, réalisateur, scénariste de cinéma français (° 22 décembre 1900).
@@ -750,9 +1141,43 @@
 22 novembre : Vladimir Stojarov, peintre soviétique (° 3 janvier 1926).
 28 novembre :
 Marthe Bibesco, écrivaine franco-roumaine (° 28 janvier 1886).
-Sarah Lipska, peintre, styliste et décoratrice française d’origine polonaise (° 7 décembre 1882).
-Décembre
-1 décembre :
+Sarah Lipska, peintre, styliste et décoratrice française d’origine polonaise (° 7 décembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1 décembre :
 David Ben Gourion, homme politique israelien, fondateur de l'État d'Israël (° 16 octobre 1886).
 Willem Hesselink, footballeur international néerlandais (° 8 février 1878).
 3 décembre : Adolfo Ruiz Cortines, président du Mexique, entre 1952 et 1958 (° 30 décembre 1890).
@@ -780,9 +1205,43 @@
 24 décembre : Louis Neillot, peintre français (° 11 février 1898).
 25 décembre : Otto Morach, peintre suisse (° 2 août 1887).
 26 décembre : Steven Geray, acteur américain d'origine hongroise (° 10 novembre 1904).
-30 décembre : Henri Büsser, organiste, compositeur et chef d'orchestre français (° 16 janvier 1872).
-Date inconnue
-Danny Green, acteur britannique (° 26 mai 1903).</t>
+30 décembre : Henri Büsser, organiste, compositeur et chef d'orchestre français (° 16 janvier 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1973</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Danny Green, acteur britannique (° 26 mai 1903).</t>
         </is>
       </c>
     </row>
